--- a/data_year/zb/文化/电视节目进出口情况/电视节目出口总额.xlsx
+++ b/data_year/zb/文化/电视节目进出口情况/电视节目出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,11 +678,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2947.79</v>
+        <v>11133.19</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -706,28 +706,30 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>1272.9</v>
+        <v>676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1340.61</v>
+        <v>713.23</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>64</v>
+        <v>2199.04</v>
       </c>
       <c r="AB2" t="n">
-        <v>1410.49</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="n">
-        <v>1553.02</v>
+        <v>2277.44</v>
       </c>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>369.19</v>
+      </c>
       <c r="AF2" t="n">
-        <v>912</v>
+        <v>689.87</v>
       </c>
       <c r="AG2" t="n">
-        <v>1010.64</v>
+        <v>1143.06</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -735,1090 +737,914 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>271.82</v>
+      </c>
       <c r="AR2" t="n">
-        <v>140.35</v>
+        <v>407.26</v>
       </c>
       <c r="AS2" t="n">
-        <v>209.27</v>
+        <v>940.08</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
-        <v>7524.95</v>
+        <v>7483.51</v>
       </c>
       <c r="AV2" t="n">
-        <v>12476.06</v>
+        <v>21010.15</v>
       </c>
       <c r="AW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4455.99</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>3686.42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>511.09</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2203.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3403.94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>557</v>
+      </c>
+      <c r="G3" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2068.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2401.48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>757.16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2000.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3125.75</v>
+      </c>
+      <c r="N3" t="n">
+        <v>151.17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2833.59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7955.11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12546.26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>865.58</v>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>78</v>
+      </c>
       <c r="X3" t="n">
-        <v>372.4</v>
+        <v>939.46</v>
       </c>
       <c r="Y3" t="n">
-        <v>443.48</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+        <v>1042.89</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.12</v>
+      </c>
       <c r="AA3" t="n">
-        <v>520.03</v>
+        <v>365.27</v>
       </c>
       <c r="AB3" t="n">
-        <v>77</v>
+        <v>42.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.58</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+        <v>567.0700000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>86.5</v>
+      </c>
       <c r="AE3" t="n">
-        <v>800.9</v>
+        <v>380.55</v>
       </c>
       <c r="AF3" t="n">
-        <v>246.14</v>
+        <v>6501.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>1130.12</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+        <v>9261.040000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>843</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>420.56</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6522.78</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9338.48</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>843</v>
+      </c>
       <c r="AM3" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AO3" t="n">
-        <v>511</v>
-      </c>
-      <c r="AP3" t="inlineStr"/>
+        <v>253.81</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>38.81</v>
+      </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>1246.74</v>
       </c>
       <c r="AR3" t="n">
-        <v>298</v>
+        <v>455.57</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="inlineStr"/>
+        <v>1737.1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>34.79</v>
+      </c>
       <c r="AU3" t="n">
-        <v>3583.59</v>
+        <v>14683.09</v>
       </c>
       <c r="AV3" t="n">
-        <v>9173.030000000001</v>
-      </c>
-      <c r="AW3" t="inlineStr"/>
+        <v>22720.62</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1833.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11133.19</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+        <v>3104.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2452.39</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3089.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150</v>
+      </c>
+      <c r="G4" t="n">
+        <v>204.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5189.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5728.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>299</v>
+      </c>
+      <c r="K4" t="n">
+        <v>596.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1157.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2144.29</v>
+      </c>
+      <c r="N4" t="n">
+        <v>190</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2008.71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11142.13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14320.56</v>
+      </c>
+      <c r="R4" t="n">
+        <v>699</v>
+      </c>
+      <c r="S4" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2264.97</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2999.33</v>
+      </c>
+      <c r="V4" t="n">
+        <v>695</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
       <c r="X4" t="n">
-        <v>676</v>
+        <v>1352.74</v>
       </c>
       <c r="Y4" t="n">
-        <v>713.23</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+        <v>1385.73</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
       <c r="AA4" t="n">
-        <v>2199.04</v>
+        <v>378.83</v>
       </c>
       <c r="AB4" t="n">
-        <v>77</v>
+        <v>156.27</v>
       </c>
       <c r="AC4" t="n">
-        <v>2277.44</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+        <v>2429.14</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1119</v>
+      </c>
       <c r="AE4" t="n">
-        <v>369.19</v>
+        <v>396.03</v>
       </c>
       <c r="AF4" t="n">
-        <v>689.87</v>
+        <v>760.35</v>
       </c>
       <c r="AG4" t="n">
-        <v>1143.06</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="n">
-        <v>5</v>
-      </c>
+        <v>1964.51</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>711</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>677.8200000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1405.06</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3021.81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>711</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>51.35</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
+        <v>53.35</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
       <c r="AQ4" t="n">
-        <v>271.82</v>
+        <v>839.6900000000001</v>
       </c>
       <c r="AR4" t="n">
-        <v>407.26</v>
+        <v>481.51</v>
       </c>
       <c r="AS4" t="n">
-        <v>940.08</v>
-      </c>
-      <c r="AT4" t="inlineStr"/>
+        <v>1368.2</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>43</v>
+      </c>
       <c r="AU4" t="n">
-        <v>7483.51</v>
+        <v>15019.78</v>
       </c>
       <c r="AV4" t="n">
-        <v>21010.15</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
+        <v>22824.19</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3662.39</v>
+        <v>4894.24</v>
       </c>
       <c r="C5" t="n">
-        <v>511.09</v>
+        <v>289.65</v>
       </c>
       <c r="D5" t="n">
-        <v>2203.4</v>
+        <v>1516.49</v>
       </c>
       <c r="E5" t="n">
-        <v>3403.93</v>
+        <v>1966.99</v>
       </c>
       <c r="F5" t="n">
-        <v>557</v>
+        <v>104.97</v>
       </c>
       <c r="G5" t="n">
-        <v>218.6</v>
+        <v>341.51</v>
       </c>
       <c r="H5" t="n">
-        <v>2068.28</v>
+        <v>1855.13</v>
       </c>
       <c r="I5" t="n">
-        <v>2401.48</v>
+        <v>2582.86</v>
       </c>
       <c r="J5" t="n">
-        <v>108.5</v>
+        <v>384.22</v>
       </c>
       <c r="K5" t="n">
-        <v>757.16</v>
+        <v>234.88</v>
       </c>
       <c r="L5" t="n">
-        <v>2000.4</v>
+        <v>553.92</v>
       </c>
       <c r="M5" t="n">
-        <v>3125.75</v>
+        <v>1141.75</v>
       </c>
       <c r="N5" t="n">
-        <v>151.17</v>
+        <v>283.63</v>
       </c>
       <c r="O5" t="n">
-        <v>754.55</v>
+        <v>1937.24</v>
       </c>
       <c r="P5" t="n">
-        <v>6067.8</v>
+        <v>6597.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>8038.92</v>
+        <v>9607.27</v>
       </c>
       <c r="R5" t="n">
-        <v>852.79</v>
+        <v>941.29</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>200.77</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
+        <v>471.77</v>
+      </c>
+      <c r="V5" t="n">
+        <v>80</v>
+      </c>
       <c r="W5" t="n">
-        <v>78</v>
+        <v>1017.9</v>
       </c>
       <c r="X5" t="n">
-        <v>939.46</v>
+        <v>1545.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.89</v>
+        <v>2569.48</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.12</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.27</v>
+        <v>2127</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.2</v>
+        <v>623.72</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.0700000000001</v>
+        <v>3922.08</v>
       </c>
       <c r="AD5" t="n">
-        <v>86.5</v>
+        <v>361.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>380.55</v>
+        <v>517.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>6501.1</v>
+        <v>868.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>9261.040000000001</v>
+        <v>2795.98</v>
       </c>
       <c r="AH5" t="n">
-        <v>843</v>
+        <v>1216.86</v>
       </c>
       <c r="AI5" t="n">
-        <v>413.56</v>
+        <v>517.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6451.78</v>
+        <v>1279.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>9235.190000000001</v>
+        <v>3264.9</v>
       </c>
       <c r="AL5" t="n">
-        <v>843</v>
+        <v>1271.26</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>312.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>148</v>
+        <v>547.95</v>
       </c>
       <c r="AO5" t="n">
-        <v>253.81</v>
+        <v>899.55</v>
       </c>
       <c r="AP5" t="n">
-        <v>38.81</v>
+        <v>39.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1246.74</v>
+        <v>53.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>455.57</v>
+        <v>1126.49</v>
       </c>
       <c r="AS5" t="n">
-        <v>1737.1</v>
+        <v>1346.19</v>
       </c>
       <c r="AT5" t="n">
-        <v>34.79</v>
+        <v>166.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>14648.95</v>
+        <v>9249.77</v>
       </c>
       <c r="AV5" t="n">
-        <v>22662.45</v>
+        <v>18165.57</v>
       </c>
       <c r="AW5" t="n">
-        <v>1833.89</v>
+        <v>2693.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3104.72</v>
+        <v>3190.02</v>
       </c>
       <c r="C6" t="n">
-        <v>317.04</v>
+        <v>21.59</v>
       </c>
       <c r="D6" t="n">
-        <v>2452.39</v>
+        <v>3151.7</v>
       </c>
       <c r="E6" t="n">
-        <v>3089.97</v>
-      </c>
-      <c r="F6" t="n">
-        <v>150</v>
-      </c>
+        <v>3189.35</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>204.47</v>
+        <v>102.09</v>
       </c>
       <c r="H6" t="n">
-        <v>5189.9</v>
+        <v>7438.51</v>
       </c>
       <c r="I6" t="n">
-        <v>5728.88</v>
+        <v>7773.19</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="K6" t="n">
-        <v>596.83</v>
+        <v>951.14</v>
       </c>
       <c r="L6" t="n">
-        <v>1157.45</v>
+        <v>5402.95</v>
       </c>
       <c r="M6" t="n">
-        <v>2144.29</v>
+        <v>6513.65</v>
       </c>
       <c r="N6" t="n">
-        <v>190</v>
+        <v>87.75</v>
       </c>
       <c r="O6" t="n">
-        <v>2008.71</v>
+        <v>1810.48</v>
       </c>
       <c r="P6" t="n">
-        <v>11142.13</v>
+        <v>18879.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>14320.56</v>
+        <v>21668.96</v>
       </c>
       <c r="R6" t="n">
-        <v>699</v>
+        <v>321.75</v>
       </c>
       <c r="S6" t="n">
-        <v>39.36</v>
+        <v>92.17</v>
       </c>
       <c r="T6" t="n">
-        <v>2264.97</v>
+        <v>22.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2999.33</v>
-      </c>
-      <c r="V6" t="n">
-        <v>695</v>
-      </c>
+        <v>125.2</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
+        <v>616.61</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1314</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1934.35</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>677.6900000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2178.29</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1237.6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>318.62</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2306.45</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>377.96</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1244.29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1209.77</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3224.97</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>389.96</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="AP6" t="n">
         <v>13</v>
       </c>
-      <c r="X6" t="n">
-        <v>1352.74</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1385.73</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>378.83</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>156.27</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2429.14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1119</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>396.03</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>760.35</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1964.51</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>711</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>677.8200000000001</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1405.06</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3021.81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>711</v>
-      </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
-        <v>51.35</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>53.35</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>839.6900000000001</v>
+        <v>22.92</v>
       </c>
       <c r="AR6" t="n">
-        <v>481.51</v>
+        <v>767.12</v>
       </c>
       <c r="AS6" t="n">
-        <v>1368.2</v>
+        <v>833.04</v>
       </c>
       <c r="AT6" t="n">
         <v>43</v>
       </c>
       <c r="AU6" t="n">
-        <v>15019.78</v>
+        <v>20795.49</v>
       </c>
       <c r="AV6" t="n">
-        <v>22824.19</v>
+        <v>27225.71</v>
       </c>
       <c r="AW6" t="n">
-        <v>3226</v>
+        <v>745.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4894.24</v>
+        <v>10059.23</v>
       </c>
       <c r="C7" t="n">
-        <v>289.65</v>
+        <v>1824.42</v>
       </c>
       <c r="D7" t="n">
-        <v>1516.49</v>
+        <v>9314.200000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1966.99</v>
+        <v>12397.39</v>
       </c>
       <c r="F7" t="n">
-        <v>104.97</v>
+        <v>128.37</v>
       </c>
       <c r="G7" t="n">
-        <v>341.51</v>
+        <v>1446.45</v>
       </c>
       <c r="H7" t="n">
-        <v>1855.13</v>
+        <v>6405.17</v>
       </c>
       <c r="I7" t="n">
-        <v>2582.86</v>
+        <v>8418.030000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>384.22</v>
+        <v>71.78</v>
       </c>
       <c r="K7" t="n">
-        <v>234.88</v>
+        <v>1681.88</v>
       </c>
       <c r="L7" t="n">
-        <v>553.92</v>
+        <v>7149.06</v>
       </c>
       <c r="M7" t="n">
-        <v>1141.75</v>
+        <v>9317.700000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>283.63</v>
+        <v>160.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1937.24</v>
+        <v>7545.74</v>
       </c>
       <c r="P7" t="n">
-        <v>6597.83</v>
+        <v>27080.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>9607.27</v>
+        <v>37072.28</v>
       </c>
       <c r="R7" t="n">
-        <v>941.29</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>386.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>88.37</v>
+      </c>
       <c r="T7" t="n">
-        <v>200.77</v>
+        <v>1272.72</v>
       </c>
       <c r="U7" t="n">
-        <v>471.77</v>
-      </c>
-      <c r="V7" t="n">
-        <v>80</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1017.9</v>
-      </c>
+        <v>1361.09</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>1545.8</v>
+        <v>1966.06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2569.48</v>
+        <v>1978.11</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.07</v>
+        <v>11.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>2127</v>
+        <v>1292.72</v>
       </c>
       <c r="AB7" t="n">
-        <v>623.72</v>
+        <v>3461.34</v>
       </c>
       <c r="AC7" t="n">
-        <v>3922.08</v>
+        <v>4859.56</v>
       </c>
       <c r="AD7" t="n">
-        <v>361.8</v>
+        <v>105.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>517.5</v>
+        <v>959.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>868.4</v>
+        <v>2066.06</v>
       </c>
       <c r="AG7" t="n">
-        <v>2795.98</v>
+        <v>3923.66</v>
       </c>
       <c r="AH7" t="n">
-        <v>1216.86</v>
+        <v>331.64</v>
       </c>
       <c r="AI7" t="n">
-        <v>517.5</v>
+        <v>979</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1279.5</v>
+        <v>5019.01</v>
       </c>
       <c r="AK7" t="n">
-        <v>3264.9</v>
+        <v>6937.54</v>
       </c>
       <c r="AL7" t="n">
-        <v>1271.26</v>
+        <v>349.34</v>
       </c>
       <c r="AM7" t="n">
-        <v>312.5</v>
+        <v>153.4</v>
       </c>
       <c r="AN7" t="n">
-        <v>547.95</v>
+        <v>871.55</v>
       </c>
       <c r="AO7" t="n">
-        <v>899.55</v>
+        <v>1101.44</v>
       </c>
       <c r="AP7" t="n">
-        <v>39.1</v>
+        <v>58.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>53.3</v>
+        <v>1763.43</v>
       </c>
       <c r="AR7" t="n">
-        <v>1126.49</v>
+        <v>1217.13</v>
       </c>
       <c r="AS7" t="n">
-        <v>1346.19</v>
+        <v>2990.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>166.4</v>
+        <v>9.66</v>
       </c>
       <c r="AU7" t="n">
-        <v>9249.77</v>
+        <v>37704.63</v>
       </c>
       <c r="AV7" t="n">
-        <v>18165.57</v>
+        <v>51331.91</v>
       </c>
       <c r="AW7" t="n">
-        <v>2693.45</v>
+        <v>900.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3190.02</v>
+        <v>3661.83</v>
       </c>
       <c r="C8" t="n">
-        <v>21.59</v>
+        <v>173.07</v>
       </c>
       <c r="D8" t="n">
-        <v>3151.7</v>
+        <v>6698.1</v>
       </c>
       <c r="E8" t="n">
-        <v>3189.35</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>7288.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>181.95</v>
+      </c>
       <c r="G8" t="n">
-        <v>102.09</v>
+        <v>11.71</v>
       </c>
       <c r="H8" t="n">
-        <v>7438.51</v>
+        <v>8233.440000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>7773.19</v>
+        <v>8489.940000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>186</v>
+        <v>68.52</v>
       </c>
       <c r="K8" t="n">
-        <v>951.14</v>
+        <v>1905.14</v>
       </c>
       <c r="L8" t="n">
-        <v>5402.95</v>
+        <v>2794.6</v>
       </c>
       <c r="M8" t="n">
-        <v>6513.65</v>
+        <v>5045.18</v>
       </c>
       <c r="N8" t="n">
-        <v>87.75</v>
+        <v>120.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.48</v>
+        <v>2622.97</v>
       </c>
       <c r="P8" t="n">
-        <v>18879.28</v>
+        <v>28194.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>21668.96</v>
+        <v>32458.33</v>
       </c>
       <c r="R8" t="n">
-        <v>321.75</v>
+        <v>609.8</v>
       </c>
       <c r="S8" t="n">
-        <v>92.17</v>
+        <v>5.65</v>
       </c>
       <c r="T8" t="n">
-        <v>22.05</v>
+        <v>289.13</v>
       </c>
       <c r="U8" t="n">
-        <v>125.2</v>
+        <v>304.26</v>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>616.61</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>1314</v>
+        <v>5108.46</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.35</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
+        <v>5115.05</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.68</v>
+      </c>
       <c r="AA8" t="n">
-        <v>42.05</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="AB8" t="n">
-        <v>677.6900000000001</v>
+        <v>503.07</v>
       </c>
       <c r="AC8" t="n">
-        <v>2178.29</v>
+        <v>1831.47</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>822.91</v>
       </c>
       <c r="AE8" t="n">
-        <v>1237.6</v>
+        <v>752.33</v>
       </c>
       <c r="AF8" t="n">
-        <v>318.62</v>
+        <v>264.91</v>
       </c>
       <c r="AG8" t="n">
-        <v>2306.45</v>
+        <v>1278.47</v>
       </c>
       <c r="AH8" t="n">
-        <v>377.96</v>
+        <v>31.42</v>
       </c>
       <c r="AI8" t="n">
-        <v>1244.29</v>
+        <v>931.33</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1209.77</v>
+        <v>589.89</v>
       </c>
       <c r="AK8" t="n">
-        <v>3224.97</v>
+        <v>2088.18</v>
       </c>
       <c r="AL8" t="n">
-        <v>389.96</v>
+        <v>335.6</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.03</v>
+        <v>17.56</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.7</v>
+        <v>155.76</v>
       </c>
       <c r="AO8" t="n">
-        <v>28.29</v>
+        <v>226.89</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>31.32</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22.92</v>
+        <v>343</v>
       </c>
       <c r="AR8" t="n">
-        <v>767.12</v>
+        <v>1695.83</v>
       </c>
       <c r="AS8" t="n">
-        <v>833.04</v>
+        <v>2080.7</v>
       </c>
       <c r="AT8" t="n">
-        <v>43</v>
+        <v>28.88</v>
       </c>
       <c r="AU8" t="n">
-        <v>20795.49</v>
+        <v>29732.21</v>
       </c>
       <c r="AV8" t="n">
-        <v>27225.71</v>
+        <v>36909.13</v>
       </c>
       <c r="AW8" t="n">
-        <v>745.71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10059.23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1824.42</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9314.200000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12397.39</v>
-      </c>
-      <c r="F9" t="n">
-        <v>128.37</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1446.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6405.17</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8418.030000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1681.88</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7149.06</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9317.700000000001</v>
-      </c>
-      <c r="N9" t="n">
-        <v>160.14</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7545.74</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27080.01</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>37072.28</v>
-      </c>
-      <c r="R9" t="n">
-        <v>386.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1272.72</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1361.09</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>1966.06</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1978.11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1292.72</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3461.34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>4859.56</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>959.2</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2066.06</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3923.66</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>331.64</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>979</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>5019.01</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6937.54</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>349.34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>871.55</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1101.44</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1763.43</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1217.13</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>2990.22</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>37704.63</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51331.91</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>900.62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3661.83</v>
-      </c>
-      <c r="C10" t="n">
-        <v>173.07</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6698.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7288.21</v>
-      </c>
-      <c r="F10" t="n">
-        <v>181.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8233.440000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8489.940000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>68.52</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1905.14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2794.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5045.18</v>
-      </c>
-      <c r="N10" t="n">
-        <v>120.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2622.97</v>
-      </c>
-      <c r="P10" t="n">
-        <v>28194.36</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>32458.33</v>
-      </c>
-      <c r="R10" t="n">
-        <v>609.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="T10" t="n">
-        <v>289.13</v>
-      </c>
-      <c r="U10" t="n">
-        <v>304.26</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
-        <v>5108.46</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5115.05</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>84.31999999999999</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>503.07</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1831.47</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>822.91</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>752.33</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>264.91</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1278.47</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>931.33</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>589.89</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>2088.18</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>335.6</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>155.76</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>226.89</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>343</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1695.83</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2080.7</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>29732.21</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>36909.13</v>
-      </c>
-      <c r="AW10" t="n">
         <v>1799.63</v>
       </c>
     </row>
